--- a/medicine/Enfance/Gillian_Bradshaw/Gillian_Bradshaw.xlsx
+++ b/medicine/Enfance/Gillian_Bradshaw/Gillian_Bradshaw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gillian Marucha Bradshaw, née le 14 mai 1956 à Falls Church en Virginie, est une romancière américaine vivant en Grande-Bretagne. Ses domaines de prédilection sont la science-fiction, les romans historiques et la littérature d'enfance et de jeunesse, qu'elle écrit toujours sur un fond de vérité, historique ou scientifique.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,12 +553,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série La Légende arthurienne
-Faucon de mai, Nestiveqnen, 2004 ((en) Hawk of May, 1980), roman historique
+          <t>Série La Légende arthurienne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Faucon de mai, Nestiveqnen, 2004 ((en) Hawk of May, 1980), roman historique
 Trône de l'été, Nestiveqnen, 2006 ((en) Kingdom of Summer, 1981), roman historique avec éléments de science-fiction
-(en) In Winter's Shadow, 1982, roman historique avec éléments de science-fiction
-Romans indépendants
-Le Phare d'Alexandrie, Albin Michel, 1988 ((en) The Beacon at Alexandria, 1986), roman historique
+(en) In Winter's Shadow, 1982, roman historique avec éléments de science-fiction</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gillian_Bradshaw</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gillian_Bradshaw</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Phare d'Alexandrie, Albin Michel, 1988 ((en) The Beacon at Alexandria, 1986), roman historique
 (en) The Bearkeeper's Daughter, 1987, roman historique
 Pourpre impériale, Albin Michel, 1992 ((en) The Colour of Power, 1988), roman historiqueParu aux États-Unis sous le titre Imperial Purple
 (en) Horses of Heaven, 1990, roman historique avec éléments de science-fiction
@@ -563,9 +616,43 @@
 (en) The Alchemy of Fire, 2004, roman historique
 (en) The Elixir of Youth, 2006, roman contemporain
 (en) Bloodwood, 2007, roman contemporain
-(en) Dark North, 2007, roman historique
-Recueil de nouvelles
-(en) The Justice of Isis, 2002, nouvelles historiques</t>
+(en) Dark North, 2007, roman historique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gillian_Bradshaw</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gillian_Bradshaw</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) The Justice of Isis, 2002, nouvelles historiques</t>
         </is>
       </c>
     </row>
